--- a/intra/data.xlsx
+++ b/intra/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>IMAGE</t>
   </si>
@@ -62,31 +62,34 @@
     <t>COLOR</t>
   </si>
   <si>
-    <t>Perfumed Pkaromdoul Rice 10kg</t>
-  </si>
-  <si>
-    <t>អង្ករផ្ការំដូល</t>
-  </si>
-  <si>
-    <t>L.B.N Angkor (Kompuchea) Phnom Penh</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>អង្ករផ្ការំដួល</t>
-  </si>
-  <si>
-    <t>CAMBODIA</t>
-  </si>
-  <si>
-    <t>Perfumed Pkaromdoul Rice 25kg</t>
-  </si>
-  <si>
-    <t>Perfumed Pkaromdoul Rice 5kg</t>
+    <t>REDBULL energy drink (kraetingdaeng) 250ml</t>
+  </si>
+  <si>
+    <t>ភេសជ្ជៈប៉ូវកំលាំងគោជល់</t>
+  </si>
+  <si>
+    <t>HERO KING LTD</t>
+  </si>
+  <si>
+    <t>SOFT DRINK</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>Sponsor Original Bottle 24X250ml</t>
+  </si>
+  <si>
+    <t>ភេសជ្ជៈស្ព័នស័រដប</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Sponsor Original Flavoured 24X325ml</t>
+  </si>
+  <si>
+    <t>ភេសជ្ជះប៉ូវកំលាំង Sponsor</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1057275" cy="857250"/>
+    <xdr:ext cx="1028700" cy="857250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="name" descr="description"/>
@@ -174,7 +177,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1009650" cy="857250"/>
+    <xdr:ext cx="1095375" cy="857250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="name" descr="description"/>
@@ -204,7 +207,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1009650" cy="857250"/>
+    <xdr:ext cx="1114425" cy="857250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="name" descr="description"/>
@@ -214,66 +217,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1009650" cy="857250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="name" descr="description"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1057275" cy="857250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="name" descr="description"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -580,7 +523,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,7 +605,7 @@
     <row r="2" spans="1:22" customHeight="1" ht="100">
       <c r="A2"/>
       <c r="B2">
-        <v>8846600338899</v>
+        <v>8850228000151</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -670,23 +613,24 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
+      <c r="E2"/>
       <c r="F2">
-        <v>10.65</v>
+        <v>0.55</v>
       </c>
       <c r="G2">
-        <v>8.5</v>
+        <v>0.3881</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2">
-        <v>19.0</v>
+        <v>9235.0</v>
       </c>
       <c r="J2">
-        <v>8.0</v>
+        <v>7638.0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>127.0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -701,31 +645,31 @@
     <row r="3" spans="1:22" customHeight="1" ht="100">
       <c r="A3"/>
       <c r="B3">
-        <v>9999253573762</v>
+        <v>8850228000403</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>14.2</v>
+        <v>0.45</v>
       </c>
       <c r="G3">
-        <v>11.35</v>
+        <v>0.2917</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3">
-        <v>190.0</v>
+        <v>129.0</v>
       </c>
       <c r="J3">
-        <v>118.0</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -734,38 +678,37 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:22" customHeight="1" ht="100">
       <c r="A4"/>
       <c r="B4">
-        <v>9999253573779</v>
+        <v>8850228002841</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4"/>
+        <v>24</v>
+      </c>
       <c r="F4">
-        <v>35.6</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4">
-        <v>67.0</v>
+        <v>126.0</v>
       </c>
       <c r="J4">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="L4">
-        <v>17.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -774,84 +717,6 @@
         <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" customHeight="1" ht="100">
-      <c r="A5"/>
-      <c r="B5">
-        <v>8846600332859</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>7.15</v>
-      </c>
-      <c r="G5">
-        <v>5.7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>104.0</v>
-      </c>
-      <c r="J5">
-        <v>103.0</v>
-      </c>
-      <c r="L5">
-        <v>-7.0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" customHeight="1" ht="100">
-      <c r="A6"/>
-      <c r="B6">
-        <v>8846600336666</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>5.65</v>
-      </c>
-      <c r="G6">
-        <v>4.5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>24.0</v>
-      </c>
-      <c r="J6">
-        <v>12.0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
         <v>19</v>
       </c>
     </row>
